--- a/viz_dep_ed_data_SMOKE.xlsx
+++ b/viz_dep_ed_data_SMOKE.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,11 +381,11 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.89</v>
+        <v>4.07</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M_20-39_Form</t>
+          <t>M_20-39_High</t>
         </is>
       </c>
     </row>
@@ -396,11 +396,11 @@
         </is>
       </c>
       <c r="B3">
-        <v>10.33</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F_20-39_Form</t>
+          <t>F_20-39_High</t>
         </is>
       </c>
     </row>
@@ -411,11 +411,11 @@
         </is>
       </c>
       <c r="B4">
-        <v>4.569999999999999</v>
+        <v>4.31</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>M_40-59_Form</t>
+          <t>M_40-59_High</t>
         </is>
       </c>
     </row>
@@ -426,11 +426,11 @@
         </is>
       </c>
       <c r="B5">
-        <v>14.9</v>
+        <v>10.32</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F_40-59_Form</t>
+          <t>F_40-59_High</t>
         </is>
       </c>
     </row>
@@ -441,11 +441,11 @@
         </is>
       </c>
       <c r="B6">
-        <v>18.74</v>
+        <v>12.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>M_60+_Form</t>
+          <t>M_60+_High</t>
         </is>
       </c>
     </row>
@@ -456,11 +456,11 @@
         </is>
       </c>
       <c r="B7">
-        <v>30.77</v>
+        <v>24.42</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>F_60+_Form</t>
+          <t>F_60+_High</t>
         </is>
       </c>
     </row>
@@ -471,11 +471,11 @@
         </is>
       </c>
       <c r="B8">
-        <v>5.2</v>
+        <v>5.27</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M_20-39_Inf</t>
+          <t>M_20-39_Low</t>
         </is>
       </c>
     </row>
@@ -486,11 +486,11 @@
         </is>
       </c>
       <c r="B9">
-        <v>11.08</v>
+        <v>11.22</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F_20-39_Inf</t>
+          <t>F_20-39_Low</t>
         </is>
       </c>
     </row>
@@ -501,11 +501,11 @@
         </is>
       </c>
       <c r="B10">
-        <v>5.36</v>
+        <v>6.76</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M_40-59_Inf</t>
+          <t>M_40-59_Low</t>
         </is>
       </c>
     </row>
@@ -516,11 +516,11 @@
         </is>
       </c>
       <c r="B11">
-        <v>16.48</v>
+        <v>17.13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F_40-59_Inf</t>
+          <t>F_40-59_Low</t>
         </is>
       </c>
     </row>
@@ -531,11 +531,11 @@
         </is>
       </c>
       <c r="B12">
-        <v>20.85</v>
+        <v>25.95</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>M_60+_Inf</t>
+          <t>M_60+_Low</t>
         </is>
       </c>
     </row>
@@ -546,101 +546,101 @@
         </is>
       </c>
       <c r="B13">
-        <v>36.47</v>
+        <v>41.94</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>F_60+_Inf</t>
+          <t>F_60+_Low</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Smokes</t>
         </is>
       </c>
       <c r="B14">
-        <v>5.23</v>
+        <v>6.54</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M_20-39_Unemp</t>
+          <t>M_20-39_High</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Smokes</t>
         </is>
       </c>
       <c r="B15">
-        <v>9.59</v>
+        <v>16.28</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>F_20-39_Unemp</t>
+          <t>F_20-39_High</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Smokes</t>
         </is>
       </c>
       <c r="B16">
-        <v>14.56</v>
+        <v>5.65</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M_40-59_Unemp</t>
+          <t>M_40-59_High</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Smokes</t>
         </is>
       </c>
       <c r="B17">
-        <v>14.73</v>
+        <v>14.41</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F_40-59_Unemp</t>
+          <t>F_40-59_High</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Smokes</t>
         </is>
       </c>
       <c r="B18">
-        <v>25.99</v>
+        <v>25.74</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M_60+_Unemp</t>
+          <t>M_60+_High</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Smokes</t>
         </is>
       </c>
       <c r="B19">
-        <v>41.21</v>
+        <v>20.51</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>F_60+_Unemp</t>
+          <t>F_60+_High</t>
         </is>
       </c>
     </row>
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="B20">
-        <v>5.53</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M_20-39_Form</t>
+          <t>M_20-39_Low</t>
         </is>
       </c>
     </row>
@@ -666,11 +666,11 @@
         </is>
       </c>
       <c r="B21">
-        <v>19.66</v>
+        <v>23.92</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>F_20-39_Form</t>
+          <t>F_20-39_Low</t>
         </is>
       </c>
     </row>
@@ -681,11 +681,11 @@
         </is>
       </c>
       <c r="B22">
-        <v>5.87</v>
+        <v>8.17</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M_40-59_Form</t>
+          <t>M_40-59_Low</t>
         </is>
       </c>
     </row>
@@ -696,11 +696,11 @@
         </is>
       </c>
       <c r="B23">
-        <v>14.39</v>
+        <v>22.05</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>F_40-59_Form</t>
+          <t>F_40-59_Low</t>
         </is>
       </c>
     </row>
@@ -711,11 +711,11 @@
         </is>
       </c>
       <c r="B24">
-        <v>17.12</v>
+        <v>27.1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>M_60+_Form</t>
+          <t>M_60+_Low</t>
         </is>
       </c>
     </row>
@@ -726,191 +726,11 @@
         </is>
       </c>
       <c r="B25">
-        <v>42.38</v>
+        <v>52.21</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>F_60+_Form</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>8.66</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>M_20-39_Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>16.39</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>F_20-39_Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>6.59</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>M_40-59_Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>25.94</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>F_40-59_Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>22.79</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>M_60+_Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>38.12</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>F_60+_Inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>10.2</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>M_20-39_Unemp</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>21.09</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>F_20-39_Unemp</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>20.71</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>M_40-59_Unemp</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>19.24</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>F_40-59_Unemp</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>34.09</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>M_60+_Unemp</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Smokes</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>48.78</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>F_60+_Unemp</t>
+          <t>F_60+_Low</t>
         </is>
       </c>
     </row>
